--- a/sql/Planning/Expenses App.xlsx
+++ b/sql/Planning/Expenses App.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="73">
   <si>
     <t>Payees</t>
   </si>
@@ -73,7 +73,7 @@
     <t>PayeeName</t>
   </si>
   <si>
-    <t xml:space="preserve"> = Foreign Keys (Ignore for now)</t>
+    <t xml:space="preserve"> = Foreign Keys</t>
   </si>
   <si>
     <t>LocationId</t>
@@ -103,7 +103,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>datetime</t>
+    <t>date</t>
   </si>
   <si>
     <t>Amount</t>
@@ -121,10 +121,10 @@
     <t>Stores non-regularly occuring payments (groceries, food, etc.)</t>
   </si>
   <si>
-    <t>StaticExpensesView</t>
-  </si>
-  <si>
-    <t>Joining Payees and StaticExpenses</t>
+    <t>LoansView</t>
+  </si>
+  <si>
+    <t>Joining Payees and Loans</t>
   </si>
   <si>
     <t>fk (payee id), not null</t>
@@ -133,52 +133,64 @@
     <t>fk (locations id), not null</t>
   </si>
   <si>
+    <t>LoanName</t>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+  </si>
+  <si>
+    <t>ex: Cruise, AirBnB, Plane ticket</t>
+  </si>
+  <si>
     <t>The unsplit amount</t>
   </si>
   <si>
-    <t>ExpenseName</t>
+    <t>Any helpful/relevant payment info</t>
+  </si>
+  <si>
+    <t>StaticExpenses</t>
+  </si>
+  <si>
+    <t>Stores regularly occuring payments (rent, utilities, etc.)</t>
+  </si>
+  <si>
+    <t>PaymentsView</t>
+  </si>
+  <si>
+    <t>Joining Payees, PaymentTypes, and Payments</t>
   </si>
   <si>
     <t>ex: Rent, Utilities, WiFi</t>
   </si>
   <si>
-    <t>Any helpful/relevant payment info</t>
-  </si>
-  <si>
     <t>StartDate</t>
   </si>
   <si>
     <t>When the expense starts</t>
   </si>
   <si>
+    <t>PaymentId</t>
+  </si>
+  <si>
     <t>EndDate</t>
   </si>
   <si>
     <t>When the expense ends</t>
   </si>
   <si>
-    <t>StaticExpenses</t>
-  </si>
-  <si>
-    <t>Stores regularly occuring payments (rent, utilities, etc.)</t>
+    <t>PaymentName</t>
+  </si>
+  <si>
+    <t>ex: Groceries, Rent, etc.</t>
   </si>
   <si>
     <t>ex: discount on electric bill</t>
   </si>
   <si>
-    <t>varchar(64)</t>
-  </si>
-  <si>
-    <t>LoansView</t>
-  </si>
-  <si>
-    <t>Joining Payees and Loans</t>
-  </si>
-  <si>
-    <t>LoanName</t>
-  </si>
-  <si>
-    <t>ex: Cruise, AirBnB, Plane ticket</t>
+    <t>PaymentTypeId</t>
+  </si>
+  <si>
+    <t>ex: Walmart, Target, etc.</t>
   </si>
   <si>
     <t>Loans</t>
@@ -187,13 +199,13 @@
     <t>Stores larger sums of borrowed money to be paid over time</t>
   </si>
   <si>
-    <t>PaymentsView</t>
-  </si>
-  <si>
-    <t>Joining Payees, PaymentTypes, and Payments</t>
-  </si>
-  <si>
-    <t>PaymentId</t>
+    <t>PaymentTypeName</t>
+  </si>
+  <si>
+    <t>ex: Dynamic, Static, Loan</t>
+  </si>
+  <si>
+    <t>PaymentNotes</t>
   </si>
   <si>
     <t>PaymentType</t>
@@ -202,24 +214,6 @@
     <t>Categorizes the payment (dynamic, static, loan)</t>
   </si>
   <si>
-    <t>ex: Walmart, Target, etc.</t>
-  </si>
-  <si>
-    <t>PaymentName</t>
-  </si>
-  <si>
-    <t>ex: Groceries, Rent, etc.</t>
-  </si>
-  <si>
-    <t>PaymentNotes</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>ex: Dynamic, Static, Loan</t>
-  </si>
-  <si>
     <t>Payments</t>
   </si>
   <si>
@@ -230,9 +224,6 @@
   </si>
   <si>
     <t>ex: Groceries, rent, etc.</t>
-  </si>
-  <si>
-    <t>PaymentTypeId</t>
   </si>
   <si>
     <t>fk (PaymentType id), not null</t>
@@ -816,10 +807,10 @@
     <xf borderId="26" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="26" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="27" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="28" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1326,7 +1317,7 @@
         <v>12</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J15" s="19"/>
     </row>
@@ -1363,12 +1354,14 @@
       </c>
       <c r="E17" s="31"/>
       <c r="H17" s="26" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="31"/>
+        <v>41</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18">
       <c r="B18" s="26" t="s">
@@ -1381,17 +1374,15 @@
         <v>17</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>42</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J18" s="31"/>
     </row>
     <row r="19">
       <c r="B19" s="22" t="s">
@@ -1402,45 +1393,34 @@
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="H20" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>47</v>
+      <c r="H19" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="43"/>
+        <v>46</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22">
       <c r="B22" s="8" t="s">
@@ -1455,14 +1435,14 @@
       <c r="E22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>7</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23">
@@ -1476,31 +1456,40 @@
         <v>11</v>
       </c>
       <c r="E23" s="19"/>
+      <c r="H23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="19"/>
     </row>
     <row r="24">
       <c r="B24" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D24" s="39" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>30</v>
@@ -1509,21 +1498,19 @@
         <v>17</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>7</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="31"/>
     </row>
     <row r="26">
       <c r="B26" s="26" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>30</v>
@@ -1532,15 +1519,17 @@
         <v>17</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="27">
       <c r="B27" s="41" t="s">
@@ -1549,19 +1538,17 @@
       <c r="C27" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="43"/>
+      <c r="E27" s="44"/>
       <c r="H27" s="26" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>18</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J27" s="28"/>
     </row>
     <row r="28">
       <c r="B28" s="22" t="s">
@@ -1572,44 +1559,44 @@
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="25" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I28" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>55</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J28" s="28"/>
     </row>
     <row r="29">
       <c r="H29" s="26" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="31"/>
+        <v>13</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>43</v>
+        <v>61</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31">
@@ -1625,6 +1612,13 @@
       <c r="E31" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="H31" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="33"/>
     </row>
     <row r="32">
       <c r="B32" s="16" t="s">
@@ -1637,181 +1631,115 @@
         <v>11</v>
       </c>
       <c r="E32" s="19"/>
-      <c r="H32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="7" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="33">
       <c r="B33" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="37"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="E36" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="C39" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="D39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="H34" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="19"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="H36" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="31"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="I38" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="J38" s="28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="16" t="s">
+    <row r="40">
+      <c r="B40" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="18" t="s">
+      <c r="C40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="H39" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="I39" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" s="33"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="31"/>
+      <c r="E40" s="19"/>
     </row>
     <row r="41">
       <c r="B41" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>17</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44">
@@ -1845,10 +1773,10 @@
         <v>12</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E46" s="49"/>
     </row>
@@ -1857,24 +1785,24 @@
         <v>15</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="34" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E48" s="37"/>
     </row>
@@ -1889,7 +1817,7 @@
         <v>17</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50">
@@ -1913,7 +1841,7 @@
       </c>
       <c r="D51" s="40"/>
       <c r="E51" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
